--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 7/Lab 7.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 7/Lab 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA583B-E1CF-4ABD-8169-1144EBEDA99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7C274C-85B5-4329-8C6A-5E8D492947F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,44 +34,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Vin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum gain</t>
+  </si>
+  <si>
+    <t>The minimum gain</t>
+  </si>
+  <si>
+    <t>gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC f=1kHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Experiment 7.a T Network</t>
-  </si>
-  <si>
-    <t>Vin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Experiment 7.b The Adjustable High-gain Amplifier</t>
-  </si>
-  <si>
-    <t>The maximum gain</t>
-  </si>
-  <si>
-    <t>The minimum gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Experiment 7.c The adjustable Positive- and negative-gain amplifier</t>
-  </si>
-  <si>
-    <t>gain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC 1kHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theoretical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,12 +110,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,12 +154,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,191 +460,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3">
-        <v>-0.1</v>
-      </c>
-      <c r="C3">
-        <v>-0.5</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="G3">
-        <v>0.2</v>
-      </c>
-      <c r="H3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>5.4987000000000004</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14.263999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-5.3749000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-12.952</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.8456999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.6783000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>12.036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>5.4987000000000004</v>
-      </c>
-      <c r="C4">
-        <v>14.263999999999999</v>
-      </c>
-      <c r="D4">
-        <v>-5.3749000000000002</v>
-      </c>
-      <c r="E4">
-        <v>-12.952</v>
-      </c>
-      <c r="F4">
-        <v>3.8456999999999999</v>
-      </c>
-      <c r="G4">
-        <v>7.6783000000000001</v>
-      </c>
-      <c r="H4">
-        <v>12.036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>B4/B3</f>
         <v>-54.987000000000002</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f t="shared" ref="C5:E5" si="0">C4/C3</f>
         <v>-28.527999999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>-53.749000000000002</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>-25.904</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" ref="F5" si="1">F4/F3</f>
         <v>38.456999999999994</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f t="shared" ref="G5" si="2">G4/G3</f>
         <v>38.391500000000001</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" ref="H5" si="3">H4/H3</f>
         <v>24.071999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-2.0030999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B9" s="1">
+        <v>-12.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>-2.0030999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7">
+        <v>-3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>-12.875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C15" s="1">
         <f>8.3072/10</f>
         <v>0.83072000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13">
+    <row r="16" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7">
         <v>-3</v>
       </c>
-      <c r="C13">
+      <c r="C16" s="1">
         <f>1.2734/10</f>
         <v>0.12734000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="7">
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>